--- a/tests/test_project_data/palette.xlsx
+++ b/tests/test_project_data/palette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
@@ -452,11 +457,16 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>treatment</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>significance</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -475,9 +485,14 @@
           <t>vehicles</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -496,9 +511,14 @@
           <t>0,3mg/kg TCB</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -517,9 +537,14 @@
           <t>TCB2</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -538,9 +563,14 @@
           <t>10mg/kg TCB</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -559,9 +589,14 @@
           <t>MDL</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -578,6 +613,11 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>TCB2+MDL</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
     </row>
